--- a/txs-autotest/com/zb/testdata/productdetail.xlsx
+++ b/txs-autotest/com/zb/testdata/productdetail.xlsx
@@ -22,23 +22,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>productid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex_amount</t>
+    <t>968732659754864642</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex.rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex.amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kw.productid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>968732659754864640</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>968732659754864642</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,12 +389,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -402,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -416,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -430,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>2</v>
